--- a/public/static/template/xjlbsj.xlsx
+++ b/public/static/template/xjlbsj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>X月现金流表</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>城投</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>经营活动产生的现金流量净额</t>
@@ -48,7 +51,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,26 +60,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,39 +109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,46 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +165,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,7 +180,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,181 +239,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -448,11 +475,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,36 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,17 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,142 +544,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,16 +689,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,57 +1027,93 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.0357142857143" customWidth="1"/>
-    <col min="2" max="2" width="14.5535714285714" customWidth="1"/>
-    <col min="3" max="3" width="15.7589285714286" customWidth="1"/>
+    <col min="1" max="1" width="39.6428571428571" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.3571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.0892857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <f>B2+C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <f>B3+C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <f>B4+C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B5" s="5">
+        <f>SUM(B2:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>SUM(C2:C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5+C5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="6" ht="15" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <f>B6+C6</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
